--- a/test/files/excel2016.xlsx
+++ b/test/files/excel2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="21105" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="975" yWindow="0" windowWidth="21105" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Basic types" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Some strings</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Baz</t>
   </si>
   <si>
-    <t>Some numbers</t>
-  </si>
-  <si>
     <t>Some empty values</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Some times</t>
   </si>
   <si>
-    <t>Some simple calculations</t>
-  </si>
-  <si>
     <t>Header cell A</t>
   </si>
   <si>
@@ -79,12 +73,27 @@
   </si>
   <si>
     <t>Cell D4</t>
+  </si>
+  <si>
+    <t>Some integer numbers</t>
+  </si>
+  <si>
+    <t>Some decimal numbers</t>
+  </si>
+  <si>
+    <t>Some decimal calculations</t>
+  </si>
+  <si>
+    <t>Some integer calculations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,11 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -407,94 +418,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="1">
         <v>43881</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>B2*2</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>C2/2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3">
+        <v>3.75</v>
+      </c>
+      <c r="E3" s="1">
         <v>43882</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.625</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F4" si="0">B3*2</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">B3*2</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>C3/2</f>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="5">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="E4" s="1">
         <v>43883</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.64236111111111105</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="H4">
+        <f>C4/2</f>
+        <v>2.4994999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -520,35 +560,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test/files/excel2016.xlsx
+++ b/test/files/excel2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="21105" windowHeight="12840"/>
+    <workbookView xWindow="975" yWindow="0" windowWidth="21105" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic types" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Some strings</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Some integer calculations</t>
+  </si>
+  <si>
+    <t>Row with leading null</t>
+  </si>
+  <si>
+    <t>Row with trailing null</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -545,17 +551,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -591,6 +597,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/files/excel2016.xlsx
+++ b/test/files/excel2016.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="21105" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="21105" windowHeight="12840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Basic types" sheetId="1" r:id="rId1"/>
     <sheet name="Empty rows and columns" sheetId="2" r:id="rId2"/>
+    <sheet name="A graph" sheetId="3" r:id="rId3"/>
+    <sheet name="Merges and hides" sheetId="4" r:id="rId4"/>
+    <sheet name="Hidden sheet" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Some strings</t>
   </si>
@@ -91,6 +94,36 @@
   </si>
   <si>
     <t>Row with trailing null</t>
+  </si>
+  <si>
+    <t>Merged B-C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Merged 2-3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Hidden 4</t>
+  </si>
+  <si>
+    <t>Hidden E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Hidden E4</t>
+  </si>
+  <si>
+    <t>Outer bound F5</t>
+  </si>
+  <si>
+    <t>I'm secret</t>
   </si>
 </sst>
 </file>
@@ -98,9 +131,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +149,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,18 +179,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -159,6 +210,868 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Basic types'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Some integer numbers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Basic types'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Foo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Basic types'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-721C-430B-9397-755B90992A6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="366583664"/>
+        <c:axId val="366583992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="366583664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366583992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366583992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366583664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,7 +1340,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -616,4 +1529,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/files/excel2016.xlsx
+++ b/test/files/excel2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="21105" windowHeight="12840" activeTab="3"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="21105" windowHeight="12840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basic types" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Some strings</t>
   </si>
@@ -124,6 +124,22 @@
   </si>
   <si>
     <t>I'm secret</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sharedString is split </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>down the middle</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -133,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +168,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1548,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1647,13 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/files/excel2016.xlsx
+++ b/test/files/excel2016.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\EQC1UV-FS011\GlasHM_Home$\m.storck00000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martijn/Developer/xsv/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C89289B-2F5E-EE40-B827-6EF16B27AD1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="21105" windowHeight="12840" activeTab="4"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="21100" windowHeight="12840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic types" sheetId="1" r:id="rId1"/>
     <sheet name="Empty rows and columns" sheetId="2" r:id="rId2"/>
     <sheet name="A graph" sheetId="3" r:id="rId3"/>
     <sheet name="Merges and hides" sheetId="4" r:id="rId4"/>
-    <sheet name="Hidden sheet" sheetId="5" r:id="rId5"/>
+    <sheet name="Hidden sheet" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -145,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -214,10 +223,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -251,7 +260,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1078,7 +1086,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1360,26 +1374,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1444,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1469,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1487,21 +1501,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1512,7 +1526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1523,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1556,12 +1570,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1569,26 +1583,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="7"/>
       <c r="D1" t="s">
         <v>23</v>
       </c>
@@ -1599,15 +1613,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1615,11 +1629,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1633,21 +1647,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
